--- a/target/classes/Template/test.xlsx
+++ b/target/classes/Template/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="22845" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">书本数据分析表 </t>
     </r>
     <r>
@@ -835,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,19 +887,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,7 +1241,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1378,30 +1360,30 @@
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="4:9">
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20" t="e">
+      <c r="E9" s="16" t="e">
         <f ca="1">AVERAGE(INDIRECT(ADDRESS(5,COLUMN())):INDIRECT(ADDRESS(ROW()-4,COLUMN())))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="4:9">
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="23" t="str">
+      <c r="E10" s="16" t="str">
         <f ca="1">TEXT(COUNT(INDIRECT(ADDRESS(5,COLUMN())):INDIRECT(ADDRESS(ROW()-5,COLUMN()))),"#0")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
